--- a/KOMPEGE/block 22/dz 2/22_11517.xlsx
+++ b/KOMPEGE/block 22/dz 2/22_11517.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maratishimov/Documents/Documents/Для КИМ-2024/22files/kompege/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew\PycharmProjects\EGEtasks\KOMPEGE\block 22\dz 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34AFE6CB-68E4-3E42-AF29-617D01A47DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114300BE-1C46-4A16-B11E-4D7F7A88EF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4360" yWindow="760" windowWidth="30200" windowHeight="20120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10200" yWindow="2415" windowWidth="33825" windowHeight="18195" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -105,6 +105,1416 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165434</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32884F0B-E2CC-47B5-A2DA-1B6B8C2E9FF6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3865145" y="200526"/>
+          <a:ext cx="1428750" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>10026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>170448</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E84DDDB3-A19B-4EA0-9C82-845544036906}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3865145" y="391026"/>
+          <a:ext cx="381000" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10027</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>5013</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180474</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>185487</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69490680-2314-4272-99B1-0A3929EE7A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5349040" y="195513"/>
+          <a:ext cx="381000" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7018</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2004</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180473</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182478</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68E52FB-9500-4CA2-8EB0-11B737E28899}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5767136" y="192504"/>
+          <a:ext cx="2278982" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12032</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170447</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>187491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Прямоугольник 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6ABF054-5FEA-4598-909F-59373A626EB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="388017"/>
+          <a:ext cx="1000626" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17043</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>7017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>187491</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Прямоугольник 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C52E7710-6C82-497F-8EC3-E0A77F688FB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829925" y="388017"/>
+          <a:ext cx="2068429" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12343</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180597</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>188744</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Прямоугольник 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8AA9C46-7458-4802-920A-B16765B1274F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8876546" y="389270"/>
+          <a:ext cx="376614" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10589</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>9023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>187366</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>189497</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Прямоугольник 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EDC1425-11E2-4D7A-BFBC-CBC5D1F4BA57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9291511" y="390023"/>
+          <a:ext cx="801855" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16540</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>21869</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>193318</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>11843</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Прямоугольник 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB721898-AC96-4C3A-98F0-803DE353765D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5755353" y="783869"/>
+          <a:ext cx="1218574" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>16539</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>16856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198330</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>6830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольник 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC7A3D7C-1D55-4482-ABAA-92F2638BD6C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5755352" y="969356"/>
+          <a:ext cx="1848666" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28445</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>16856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>199207</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6830</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Прямоугольник 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F360D47-4A01-499B-880C-89FD0631E3A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7017414" y="778856"/>
+          <a:ext cx="379121" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>24812</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>24815</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>199272</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>14789</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE43F62B-AD7C-478E-B13B-E57944F9F131}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7638859" y="977315"/>
+          <a:ext cx="1424616" cy="180474"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>165434</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10027</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Прямая со стрелкой 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{767DED52-7991-4104-9295-51EBF921A4AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5293895" y="285750"/>
+          <a:ext cx="55145" cy="5013"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>170448</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>10027</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>100263</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Прямая со стрелкой 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98BBABE2-2156-4279-93D9-95BC951F649C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="3"/>
+          <a:endCxn id="4" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4246145" y="285750"/>
+          <a:ext cx="1102895" cy="195513"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180474</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7018</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="24" name="Прямая со стрелкой 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AA30676-A05D-46B6-8F83-6D6543EE9609}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="5" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5730040" y="282741"/>
+          <a:ext cx="37096" cy="3009"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>180474</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12032</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="Прямая со стрелкой 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C2B248B-DB7A-42C8-88CF-2B35F0AFB0E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5730040" y="285750"/>
+          <a:ext cx="42110" cy="192504"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>170447</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>17043</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97254</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Прямая со стрелкой 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C4122C8-7C88-4D5D-B048-36350BEB79D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6772776" y="478254"/>
+          <a:ext cx="57149" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>180473</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>92241</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12343</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>98507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Прямая со стрелкой 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8F3FC2-2007-4E71-8D90-981812760B38}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8002879" y="282741"/>
+          <a:ext cx="873667" cy="196766"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>97254</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12343</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>98507</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Прямая со стрелкой 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2086CEE-996A-453E-8AAE-90393AC61A07}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8846343" y="478254"/>
+          <a:ext cx="30203" cy="1253"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>180597</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>98507</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>10589</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>99260</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="42" name="Прямая со стрелкой 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{647D5B99-1AAD-4627-AAF0-DB6D18298676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9253160" y="479507"/>
+          <a:ext cx="38351" cy="753"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>193318</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28445</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>112106</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Прямая со стрелкой 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B417F81-3F16-48F1-B102-2DCB1770ED7B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6973927" y="869093"/>
+          <a:ext cx="43487" cy="5013"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>199207</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>107093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>24812</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>115052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Прямая со стрелкой 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B0E0A4-7954-473B-9C6E-CAE3F563DB42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7396535" y="869093"/>
+          <a:ext cx="242324" cy="198459"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198330</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>107093</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>24812</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>115052</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Прямая со стрелкой 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D3ABD1-50E8-4F83-B1FE-67DFBF0C380B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7604018" y="1059593"/>
+          <a:ext cx="34841" cy="7959"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent4"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -406,17 +1816,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="236" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="1" customWidth="1"/>
-    <col min="4" max="1024" width="8.5" style="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="1" customWidth="1"/>
+    <col min="4" max="53" width="3.140625" style="1" customWidth="1"/>
+    <col min="54" max="1024" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,8 +1839,158 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1">
+        <v>10</v>
+      </c>
+      <c r="N1" s="1">
+        <v>11</v>
+      </c>
+      <c r="O1" s="1">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>14</v>
+      </c>
+      <c r="R1" s="1">
+        <v>15</v>
+      </c>
+      <c r="S1" s="1">
+        <v>16</v>
+      </c>
+      <c r="T1" s="1">
+        <v>17</v>
+      </c>
+      <c r="U1" s="1">
+        <v>18</v>
+      </c>
+      <c r="V1" s="1">
+        <v>19</v>
+      </c>
+      <c r="W1" s="1">
+        <v>20</v>
+      </c>
+      <c r="X1" s="1">
+        <v>21</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>29</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>31</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>33</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>34</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>35</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>36</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>37</v>
+      </c>
+      <c r="AO1" s="1">
+        <v>38</v>
+      </c>
+      <c r="AP1" s="1">
+        <v>39</v>
+      </c>
+      <c r="AQ1" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR1" s="1">
+        <v>41</v>
+      </c>
+      <c r="AS1" s="1">
+        <v>42</v>
+      </c>
+      <c r="AT1" s="1">
+        <v>43</v>
+      </c>
+      <c r="AU1" s="1">
+        <v>44</v>
+      </c>
+      <c r="AV1" s="1">
+        <v>45</v>
+      </c>
+      <c r="AW1" s="1">
+        <v>46</v>
+      </c>
+      <c r="AX1" s="1">
+        <v>47</v>
+      </c>
+      <c r="AY1" s="1">
+        <v>48</v>
+      </c>
+      <c r="AZ1" s="1">
+        <v>49</v>
+      </c>
+      <c r="BA1" s="1">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -438,7 +2001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -449,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -460,7 +2023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -471,7 +2034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -482,7 +2045,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -493,7 +2056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -504,7 +2067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -514,8 +2077,11 @@
       <c r="C9" s="1">
         <v>7</v>
       </c>
+      <c r="AB9" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -526,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -537,7 +2103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -548,7 +2114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -562,5 +2128,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>